--- a/201711 DIARY/20171111 FOOD DIARY.xlsx
+++ b/201711 DIARY/20171111 FOOD DIARY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoledi_rebecca/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoledi_rebecca/Desktop/Eat-Diary/201711 DIARY/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>item</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>limit 1500</t>
   </si>
   <si>
     <t>全家 - 雞柳條</t>
@@ -116,12 +113,72 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>雞胸肉 (479g)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜菜(甘藍菜青江菜娃娃菜小黃瓜番茄)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉(1g)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>運動</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Comic Sans MS"/>
+      </rPr>
+      <t xml:space="preserve"> 1500</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>久坐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Comic Sans MS"/>
+      </rPr>
+      <t xml:space="preserve"> 1400</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -181,6 +238,19 @@
       <color theme="0"/>
       <name val="Comic Sans MS"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="手札體-繁 標準體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="手札體-繁 標準體"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -214,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +309,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -519,12 +590,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
@@ -535,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
@@ -606,7 +678,7 @@
     </row>
     <row r="3" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>11.6</v>
@@ -676,8 +748,8 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -704,11 +776,19 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>110.17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.1972999999999998</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -732,11 +812,19 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -760,11 +848,19 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.4</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -788,11 +884,19 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>26.8</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -816,11 +920,8 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -844,8 +945,8 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -872,8 +973,8 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -900,8 +1001,8 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -928,8 +1029,8 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -956,8 +1057,8 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -984,8 +1085,8 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1012,8 +1113,8 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1040,8 +1141,8 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1068,8 +1169,8 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1096,8 +1197,8 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1124,8 +1225,8 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1158,163 +1259,176 @@
       </c>
       <c r="B22" s="11">
         <f t="shared" ref="B22:D22" si="0">SUM(B2:B21)</f>
-        <v>28.599999999999998</v>
+        <v>160.91999999999999</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="0"/>
-        <v>26.4</v>
+        <v>43.5</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>70.897300000000001</v>
       </c>
       <c r="E22" s="11">
         <f>B22*4+C22*9+D22*4</f>
-        <v>490</v>
+        <v>1318.7691999999997</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="8">
+      <c r="D23" s="8">
         <v>50</v>
       </c>
-      <c r="D23" s="7"/>
       <c r="E23" s="8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" ht="26" x14ac:dyDescent="0.4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="24" x14ac:dyDescent="0.35">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:26" ht="24" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12">
+        <v>3.1972999999999998</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:26" ht="24" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:26" ht="24" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>

--- a/201711 DIARY/20171111 FOOD DIARY.xlsx
+++ b/201711 DIARY/20171111 FOOD DIARY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2740" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -784,10 +784,10 @@
         <v>110.17</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>3.1972999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>3.1972999999999998</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1263,15 +1263,15 @@
       </c>
       <c r="C22" s="11">
         <f t="shared" si="0"/>
-        <v>43.5</v>
+        <v>46.697299999999998</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>70.897300000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E22" s="11">
         <f>B22*4+C22*9+D22*4</f>
-        <v>1318.7691999999997</v>
+        <v>1334.7556999999999</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="26" x14ac:dyDescent="0.4">
